--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed4/result_data_KNN.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.338000000000001</v>
+        <v>-7.713000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9</v>
+        <v>-21.778</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.168000000000001</v>
+        <v>-7.269</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.822</v>
+        <v>-7.583</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.756</v>
+        <v>-22.387</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.762</v>
+        <v>-20.1</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.968000000000001</v>
+        <v>-8.122999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.938</v>
+        <v>-21.86</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.596</v>
+        <v>-8.599</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.498</v>
+        <v>-7.292</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.86</v>
+        <v>-19.823</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8</v>
+        <v>-7.822</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.922</v>
+        <v>-7.722</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.668000000000001</v>
+        <v>-8.638000000000002</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.944</v>
+        <v>-8.1</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.792</v>
+        <v>-7.918000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.496</v>
+        <v>-21.627</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.029999999999999</v>
+        <v>-7.220999999999999</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.042</v>
+        <v>-7.269</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.186</v>
+        <v>-20.047</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.496</v>
+        <v>-20.364</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.231999999999999</v>
+        <v>-7.622</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.038</v>
+        <v>-22.095</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.32</v>
+        <v>-21.802</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.521999999999998</v>
+        <v>-8.462999999999999</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.986</v>
+        <v>-21.524</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.022</v>
+        <v>-7.906999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
